--- a/medicine/Mort/Cimetière_ancien_de_Romainville/Cimetière_ancien_de_Romainville.xlsx
+++ b/medicine/Mort/Cimetière_ancien_de_Romainville/Cimetière_ancien_de_Romainville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Romainville</t>
+          <t>Cimetière_ancien_de_Romainville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière ancien de Romainville est l'un des deux cimetières de cette commune[1], avec le nouveau cimetière.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière ancien de Romainville est l'un des deux cimetières de cette commune, avec le nouveau cimetière.
 Situé au no 7 rue Paul-de-Kock, en contrebas du chevet de l'église Saint-Germain-l'Auxerrois, il s'étend jusqu'à la rue des Bas-Pays.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Romainville</t>
+          <t>Cimetière_ancien_de_Romainville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ouvert en 1833[2], il est agrandi en 1883[3].
-Il abrite un monument aux morts[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ouvert en 1833, il est agrandi en 1883.
+Il abrite un monument aux morts.
 La commune de Romainville adhère au Syndicat intercommunal funéraire de la région parisienne.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_ancien_de_Romainville</t>
+          <t>Cimetière_ancien_de_Romainville</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 	Illustrations
@@ -560,11 +576,11 @@
 			Tombe serbo-croate(division 21).
 Eugène Grébaut (1846-1915), égyptologue (division 1) ;
 Berthe Kolochine-Erber (1890-1968), biologiste spécialiste de la leptospirose (division 32) ;
-Robert Lejeune (1927-2019), syndicaliste[5],[6] (division 22) ;
-Raymond Mondet alias Nicolas le Jardinier (1928-2018), journaliste et animateur de télévision[7](division 2) ;
-quatre soldats français et un soldat allemand morts durant la guerre de 1870 inhumés dans deux concessions entourées de grilles[8],[9],[10] (division 5).
+Robert Lejeune (1927-2019), syndicaliste, (division 22) ;
+Raymond Mondet alias Nicolas le Jardinier (1928-2018), journaliste et animateur de télévision(division 2) ;
+quatre soldats français et un soldat allemand morts durant la guerre de 1870 inhumés dans deux concessions entourées de grilles (division 5).
 La chapelle de la famille Blanchard affecte la forme d'un temple antique à fronton orné d'acrotères et de palmettes (division 5).
-Plusieurs défunts d'origine serbo-croate reposent dans des tombes richement ornées[11].
+Plusieurs défunts d'origine serbo-croate reposent dans des tombes richement ornées.
 </t>
         </is>
       </c>
